--- a/biology/Botanique/Forêt_domaniale_de_Lyons/Forêt_domaniale_de_Lyons.xlsx
+++ b/biology/Botanique/Forêt_domaniale_de_Lyons/Forêt_domaniale_de_Lyons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Lyons</t>
+          <t>Forêt_domaniale_de_Lyons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Lyons est une des plus vastes hêtraies normandes, aux environs de Lyons-la-Forêt. Elle s'étend sur environ 10 700 hectares sur le Nord-Est du département de l'Eure et le Sud-Est de la Seine-Maritime.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Lyons</t>
+          <t>Forêt_domaniale_de_Lyons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle s'étendait pratiquement jusqu'à Gisors et incluait les sept villes de Bleu[1] et la forêt de Bleu qui en a longtemps constitué une dépendance. Aujourd'hui, elle s'étend sur un espace délimité par les villages de Vascœuil à l'ouest, Lisors au sud, Neuf-Marché à l'est et Beauvoir-en-Lyons au nord.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'étendait pratiquement jusqu'à Gisors et incluait les sept villes de Bleu et la forêt de Bleu qui en a longtemps constitué une dépendance. Aujourd'hui, elle s'étend sur un espace délimité par les villages de Vascœuil à l'ouest, Lisors au sud, Neuf-Marché à l'est et Beauvoir-en-Lyons au nord.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Lyons</t>
+          <t>Forêt_domaniale_de_Lyons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Patrimoine naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Lyons est en zone naturelle d'intérêt écologique, faunistique et floristique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Lyons est en zone naturelle d'intérêt écologique, faunistique et floristique.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Lyons</t>
+          <t>Forêt_domaniale_de_Lyons</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « Pays de Bleu » avait acquis, dès le XIIe siècle, des droits dont bénéficiaient les modestes riverains de la forêt. Ces privilèges,  « Coutume(s) des sept villes  » furent précisés bien plus  tard par le roi de France : faire paître les bêtes et utiliser le bois de la « Forêt des sept villes ». Dans deux chartes de 1305 dont les usages et coutumes vont rester en pratique jusqu'à la Révolution française, Philippe IV le Bel officialisa les droits des habitants de la forêt sans pour autant leur octroyer la propriété des terres qu’ils exploitaient.
 La forêt qui subsiste aujourd'hui est le reliquat d'un massif forestier ancien bien plus étendu qui couvrait jusqu'au Xe siècle le Nord du Vexin normand. Puis l'exploitation du bois et le défrichage (essartage) entaillèrent irrémédiablement le massif forestier.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Lyons</t>
+          <t>Forêt_domaniale_de_Lyons</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,12 +626,14 @@
           <t>Une région verrière</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'importance de la forêt de Lyons a permis de développer pendant des siècles des industries, dont le bois faisait partie de la matière première essentielle. C’est le cas pour les fours à chaux, poteries, briqueteries, verreries,…
 Par les fouilles réalisées par l'abbé Cochet, il est possible de dire que les nombreux objets de verrerie usuelle, tirés du sol et des tombeaux, sont sortis de fours établis en Normandie à l'époque romaine.
 L’activité verrière a été particulièrement intense dans la forêt de Lyons du XIVe siècle jusqu'à la fin du XIXe siècle. 70 verreries s'installent en Normandie entre 1300 et 1789. Le premier site d'activité attesté est celui de la Fontaine du Houx à Bézu-la-Forêt, qui se déplace ensuite à La Haye, sur la même commune et fonctionne jusqu'en 1805. Un compte rendu au roi Philippe Le bel, daté de 1302, y fait référence. Elle était alors propriété du domaine royal, tout comme le château de la Fontaine-du-Houx dont elle dépendait.
-Philippe de Cacqueray[3] avait reçu de Philippe le Bel le privilège, plus tard étendu aux « Quatre Familles Verrières » de l'exclusivité de la fabrication du « Plast de Verre ».
+Philippe de Cacqueray avait reçu de Philippe le Bel le privilège, plus tard étendu aux « Quatre Familles Verrières » de l'exclusivité de la fabrication du « Plast de Verre ».
 Quelques autres verreries :
 Les Routhieux (Beauvoir-en-Lyons) : 1345-1808 ;
 Le Landel (Bézancourt) : 1616-1886 ;
